--- a/Respuestas2.xlsx
+++ b/Respuestas2.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Día de entrega de calificaciones</t>
+          <t>Día de reporte 2</t>
         </is>
       </c>
     </row>
@@ -469,6 +469,11 @@
       <c r="C2" s="1" t="n">
         <v>44265</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Saturday, 06 de Mar de 2021</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -484,6 +489,11 @@
       <c r="C3" s="1" t="n">
         <v>44266</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Saturday, 06 de Mar de 2021</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -499,6 +509,11 @@
       <c r="C4" s="1" t="n">
         <v>44267</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Saturday, 06 de Mar de 2021</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -514,6 +529,11 @@
       <c r="C5" s="1" t="n">
         <v>44268</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Saturday, 06 de Mar de 2021</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -528,6 +548,11 @@
       </c>
       <c r="C6" s="1" t="n">
         <v>44269</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Saturday, 06 de Mar de 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Respuestas2.xlsx
+++ b/Respuestas2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -449,7 +449,7 @@
           <t>Fecha</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Día de reporte 2</t>
         </is>
@@ -469,7 +469,7 @@
       <c r="C2" s="1" t="n">
         <v>44265</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -489,7 +489,7 @@
       <c r="C3" s="1" t="n">
         <v>44266</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -509,7 +509,7 @@
       <c r="C4" s="1" t="n">
         <v>44267</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -529,7 +529,7 @@
       <c r="C5" s="1" t="n">
         <v>44268</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -549,7 +549,7 @@
       <c r="C6" s="1" t="n">
         <v>44269</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>

--- a/Respuestas2.xlsx
+++ b/Respuestas2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -449,7 +449,7 @@
           <t>Fecha</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Día de reporte 2</t>
         </is>
@@ -469,7 +469,7 @@
       <c r="C2" s="1" t="n">
         <v>44265</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -489,7 +489,7 @@
       <c r="C3" s="1" t="n">
         <v>44266</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -509,7 +509,7 @@
       <c r="C4" s="1" t="n">
         <v>44267</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -529,7 +529,7 @@
       <c r="C5" s="1" t="n">
         <v>44268</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
@@ -549,7 +549,7 @@
       <c r="C6" s="1" t="n">
         <v>44269</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Saturday, 06 de Mar de 2021</t>
         </is>
